--- a/Blazor_NPOI_Excel/Blazor_NPOI_Excel/wwwroot/template.xlsx
+++ b/Blazor_NPOI_Excel/Blazor_NPOI_Excel/wwwroot/template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="47">
   <si>
     <t xml:space="preserve">检测结果</t>
   </si>
